--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,10 +595,24 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -610,10 +624,6 @@
               This provides needed flexibility for specifying whether a provider accepts new patients by location and network.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}new-patients-characteristics:If no new patients are accepted, no characteristics are allowed {extension('acceptingPatients').valueCodeableConcept.coding.exists(code = 'no') implies extension('characteristics').empty()}</t>
   </si>
@@ -621,7 +631,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -666,483 +676,344 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>HealthcareService.identifier.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.type</t>
+    <t>HealthcareService.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this HealthcareService record is in active use</t>
+  </si>
+  <si>
+    <t>This flag is used to mark the record to not be used. This is not used when a center is closed for maintenance, or for holidays, the notAvailable period is to be used for this.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>HealthcareService.providedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that provides this service</t>
+  </si>
+  <si>
+    <t>The organization that provides this healthcare service.</t>
+  </si>
+  <si>
+    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
+  </si>
+  <si>
+    <t>.scopingRole.Organization</t>
+  </si>
+  <si>
+    <t>HealthcareService.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service category
+</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.period</t>
+    <t>Broad category of service being performed or delivered</t>
+  </si>
+  <si>
+    <t>Identifies the broad category of service being performed or delivered.</t>
+  </si>
+  <si>
+    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>HealthcareService.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service type
+</t>
+  </si>
+  <si>
+    <t>Type of service that may be delivered or performed</t>
+  </si>
+  <si>
+    <t>The specific type of service that may be delivered or performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceTypeVS</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty</t>
+  </si>
+  <si>
+    <t>Specialties handled by the HealthcareService</t>
+  </si>
+  <si>
+    <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
+  </si>
+  <si>
+    <t>HealthcareService.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+</t>
+  </si>
+  <si>
+    <t>Location(s) where service may be provided</t>
+  </si>
+  <si>
+    <t>The location(s) where this healthcare service may be provided.</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC]</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>HealthcareService.name</t>
+  </si>
+  <si>
+    <t>Description of service as presented to a consumer while searching</t>
+  </si>
+  <si>
+    <t>Further description of the service as it would be presented to a consumer while searching.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>HealthcareService.comment</t>
+  </si>
+  <si>
+    <t>Additional description and/or any specific issues not covered elsewhere</t>
+  </si>
+  <si>
+    <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
+  </si>
+  <si>
+    <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC].desc</t>
+  </si>
+  <si>
+    <t>HealthcareService.extraDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Extra details about the service that can't be placed in the other fields</t>
+  </si>
+  <si>
+    <t>Extra details about the service that can't be placed in the other fields.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
+  </si>
+  <si>
+    <t>HealthcareService.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Facilitates quick identification of the service</t>
+  </si>
+  <si>
+    <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=SBJ].observation.value</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contacts related to the healthcare service</t>
+  </si>
+  <si>
+    <t>List of contacts related to this specific healthcare service.</t>
+  </si>
+  <si>
+    <t>If this is empty, then refer to the location's contacts.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.extension</t>
+  </si>
+  <si>
+    <t>contactpoint-availabletime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+</t>
+  </si>
+  <si>
+    <t>Contactpoint Availabletime</t>
+  </si>
+  <si>
+    <t>An extension representing the days and times a contact point is available</t>
+  </si>
+  <si>
+    <t>via-intermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+</t>
+  </si>
+  <si>
+    <t>Via Intermediary</t>
+  </si>
+  <si>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>HealthcareService.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this HealthcareService record is in active use</t>
-  </si>
-  <si>
-    <t>This flag is used to mark the record to not be used. This is not used when a center is closed for maintenance, or for holidays, the notAvailable period is to be used for this.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that provides this service</t>
-  </si>
-  <si>
-    <t>The organization that provides this healthcare service.</t>
-  </si>
-  <si>
-    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
-  </si>
-  <si>
-    <t>.scopingRole.Organization</t>
-  </si>
-  <si>
-    <t>HealthcareService.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service category
-</t>
-  </si>
-  <si>
-    <t>Broad category of service being performed or delivered</t>
-  </si>
-  <si>
-    <t>Identifies the broad category of service being performed or delivered.</t>
-  </si>
-  <si>
-    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceCategoryVS</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>HealthcareService.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service type
-</t>
-  </si>
-  <si>
-    <t>Type of service that may be delivered or performed</t>
-  </si>
-  <si>
-    <t>The specific type of service that may be delivered or performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceTypeVS</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty</t>
-  </si>
-  <si>
-    <t>Specialties handled by the HealthcareService</t>
-  </si>
-  <si>
-    <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtiesVS</t>
-  </si>
-  <si>
-    <t>HealthcareService.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
-</t>
-  </si>
-  <si>
-    <t>Location(s) where service may be provided</t>
-  </si>
-  <si>
-    <t>The location(s) where this healthcare service may be provided.</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC]</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.name</t>
-  </si>
-  <si>
-    <t>Description of service as presented to a consumer while searching</t>
-  </si>
-  <si>
-    <t>Further description of the service as it would be presented to a consumer while searching.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>HealthcareService.comment</t>
-  </si>
-  <si>
-    <t>Additional description and/or any specific issues not covered elsewhere</t>
-  </si>
-  <si>
-    <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
-  </si>
-  <si>
-    <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC].desc</t>
-  </si>
-  <si>
-    <t>HealthcareService.extraDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>Extra details about the service that can't be placed in the other fields</t>
-  </si>
-  <si>
-    <t>Extra details about the service that can't be placed in the other fields.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
-  </si>
-  <si>
-    <t>HealthcareService.photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment
-</t>
-  </si>
-  <si>
-    <t>Facilitates quick identification of the service</t>
-  </si>
-  <si>
-    <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=SBJ].observation.value</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contacts related to the healthcare service</t>
-  </si>
-  <si>
-    <t>List of contacts related to this specific healthcare service.</t>
-  </si>
-  <si>
-    <t>If this is empty, then refer to the location's contacts.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactpoint-availabletime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
-</t>
-  </si>
-  <si>
-    <t>Contactpoint Availabletime</t>
-  </si>
-  <si>
-    <t>An extension representing the days and times a contact point is available</t>
-  </si>
-  <si>
-    <t>via-intermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
-</t>
-  </si>
-  <si>
-    <t>Via Intermediary</t>
-  </si>
-  <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.period</t>
-  </si>
-  <si>
     <t>Time period when the contact point was/is in use</t>
   </si>
   <si>
@@ -1444,7 +1315,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1771,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:AK71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1804,7 +1675,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -1815,7 +1686,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3602,7 +3473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -3620,7 +3491,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3635,7 +3506,7 @@
         <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3695,10 +3566,10 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3712,14 +3583,14 @@
         <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -3734,13 +3605,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3800,10 +3671,10 @@
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3814,15 +3685,17 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>76</v>
@@ -3831,13 +3704,13 @@
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>197</v>
@@ -3845,12 +3718,8 @@
       <c r="L20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3898,7 +3767,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3907,13 +3776,13 @@
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3921,11 +3790,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3938,22 +3807,26 @@
         <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4001,7 +3874,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4013,18 +3886,18 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4035,25 +3908,25 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4104,73 +3977,75 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4197,42 +4072,42 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4246,29 +4121,27 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4292,13 +4165,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4316,7 +4189,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4331,7 +4204,7 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4339,15 +4212,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
@@ -4362,20 +4235,18 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4401,35 +4272,33 @@
       <c r="W25" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4438,29 +4307,29 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4469,20 +4338,16 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4494,7 +4359,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4506,13 +4371,11 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4536,7 +4399,7 @@
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4545,7 +4408,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4553,7 +4416,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4564,7 +4427,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>83</v>
@@ -4576,17 +4439,15 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4599,49 +4460,47 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4650,15 +4509,15 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4669,10 +4528,10 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4681,13 +4540,13 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4738,13 +4597,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4753,15 +4612,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4775,7 +4634,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4784,17 +4643,15 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M29" t="s" s="2">
         <v>253</v>
       </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4843,7 +4700,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4858,15 +4715,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4874,44 +4731,42 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>74</v>
@@ -4950,7 +4805,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4965,15 +4820,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4987,26 +4842,24 @@
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5055,7 +4908,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5070,29 +4923,29 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5101,17 +4954,15 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5136,11 +4987,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5158,13 +5011,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -5173,19 +5026,19 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5195,24 +5048,26 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5237,11 +5092,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5259,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5274,15 +5131,15 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5293,25 +5150,25 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5338,11 +5195,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5360,34 +5219,34 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5397,24 +5256,26 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5451,19 +5312,19 @@
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5475,20 +5336,22 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>293</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5497,25 +5360,25 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5566,32 +5429,34 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5600,29 +5465,27 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5671,22 +5534,22 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5694,7 +5557,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5714,16 +5577,16 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5750,13 +5613,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5774,7 +5637,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5783,13 +5646,13 @@
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5797,7 +5660,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5820,16 +5683,20 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5877,7 +5744,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5892,15 +5759,15 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5911,30 +5778,32 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5958,13 +5827,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5982,13 +5851,13 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5997,7 +5866,7 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6005,7 +5874,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6025,18 +5894,20 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6085,7 +5956,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6097,7 +5968,7 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>99</v>
@@ -6108,18 +5979,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6128,20 +5999,18 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6178,34 +6047,34 @@
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6213,11 +6082,9 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B43" t="s" s="2">
         <v>322</v>
       </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6238,15 +6105,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6295,7 +6164,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6307,10 +6176,10 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6318,11 +6187,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6343,7 +6210,7 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>328</v>
@@ -6351,7 +6218,9 @@
       <c r="L44" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6376,13 +6245,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6400,7 +6269,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6412,10 +6281,10 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6423,7 +6292,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6434,7 +6303,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>83</v>
@@ -6443,16 +6312,16 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>158</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6479,54 +6348,54 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6540,29 +6409,25 @@
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6610,7 +6475,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6622,10 +6487,10 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6633,43 +6498,41 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6693,13 +6556,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6717,22 +6580,22 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>353</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6740,41 +6603,43 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6822,22 +6687,22 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6845,7 +6710,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6865,16 +6730,16 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6901,10 +6766,10 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>74</v>
@@ -6925,7 +6790,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6940,15 +6805,15 @@
         <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6959,10 +6824,10 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -6971,16 +6836,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7030,13 +6895,13 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7045,15 +6910,15 @@
         <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7067,7 +6932,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7076,16 +6941,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7114,10 +6979,10 @@
         <v>148</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7135,7 +7000,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7150,15 +7015,15 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7172,7 +7037,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7181,15 +7046,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7214,10 +7081,10 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="Y52" t="s" s="2">
         <v>74</v>
@@ -7238,7 +7105,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7253,15 +7120,15 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7272,10 +7139,10 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7284,15 +7151,17 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7317,13 +7186,13 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7341,34 +7210,34 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7378,7 +7247,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7387,17 +7256,15 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7422,13 +7289,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7446,7 +7313,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>109</v>
+        <v>369</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7458,10 +7325,10 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7469,43 +7336,39 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7553,22 +7416,22 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7576,7 +7439,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7587,7 +7450,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7599,15 +7462,17 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -7632,10 +7497,10 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>74</v>
@@ -7656,13 +7521,13 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -7671,7 +7536,7 @@
         <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7679,7 +7544,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7702,17 +7567,15 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>392</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7761,7 +7624,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7773,10 +7636,10 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>395</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -7784,11 +7647,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7807,16 +7670,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>397</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>398</v>
+        <v>104</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>399</v>
+        <v>105</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7842,13 +7705,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -7866,7 +7729,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>109</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7878,10 +7741,10 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>402</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -7889,11 +7752,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7906,24 +7769,26 @@
         <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7947,10 +7812,10 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
         <v>74</v>
@@ -7971,7 +7836,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7983,10 +7848,10 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>402</v>
+        <v>181</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -7994,7 +7859,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8017,17 +7882,15 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8052,13 +7915,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>164</v>
+        <v>389</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8076,7 +7939,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8091,7 +7954,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8099,7 +7962,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8110,7 +7973,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8122,13 +7985,13 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8155,13 +8018,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8179,13 +8042,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8194,15 +8057,15 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8216,7 +8079,7 @@
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8225,15 +8088,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8282,7 +8147,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8297,15 +8162,15 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8316,10 +8181,10 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8328,16 +8193,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8387,13 +8252,13 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -8402,7 +8267,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
@@ -8410,7 +8275,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8421,7 +8286,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8433,13 +8298,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>402</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8490,22 +8355,22 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -8513,18 +8378,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8536,17 +8401,15 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8595,19 +8458,19 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>99</v>
@@ -8618,11 +8481,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8635,26 +8498,24 @@
         <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8702,7 +8563,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>386</v>
+        <v>109</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8717,19 +8578,19 @@
         <v>110</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8739,25 +8600,29 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8781,13 +8646,13 @@
         <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>431</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>74</v>
@@ -8805,7 +8670,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8817,18 +8682,18 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8836,13 +8701,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -8851,13 +8716,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>257</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8908,10 +8773,10 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -8923,15 +8788,15 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>424</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8945,7 +8810,7 @@
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -8954,17 +8819,15 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9013,7 +8876,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9028,15 +8891,15 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9050,7 +8913,7 @@
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9059,17 +8922,15 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9118,7 +8979,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9133,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
@@ -9141,7 +9002,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9164,13 +9025,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9221,7 +9082,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9236,741 +9097,14 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>424</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK78" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK78">
+  <autoFilter ref="A1:AK71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9980,7 +9114,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1651,43 +1651,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.25" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.15625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="69.5234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
